--- a/grade_curricular.xlsx
+++ b/grade_curricular.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\victo\Documents\dev\ppc_ciencia_dados\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\victo\Documents\dev\relatorios\ppc_ciencia_de_dados_unifei\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D9ABA26-0ABD-4567-AB07-88DE8DD62BA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{042C7F64-2492-42C0-B450-A9BCB74EEF98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{8C432809-743E-4B32-AEF8-DEEA931E46A8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{8C432809-743E-4B32-AEF8-DEEA931E46A8}"/>
   </bookViews>
   <sheets>
     <sheet name="Grade Curricular Original" sheetId="1" r:id="rId1"/>
@@ -585,7 +585,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -610,12 +610,6 @@
       <sz val="10"/>
       <color theme="0"/>
       <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Segoe UI"/>
       <family val="2"/>
     </font>
     <font>
@@ -771,9 +765,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -857,19 +851,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -880,19 +862,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -921,53 +890,8 @@
     <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -977,6 +901,36 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1414,7 +1368,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F7BA9CA-E740-4F31-856F-E3236BCE956A}">
   <dimension ref="A1:S26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
@@ -2212,10 +2166,10 @@
     </row>
     <row r="23" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B23" s="4"/>
-      <c r="R23" s="31" t="s">
+      <c r="R23" s="50" t="s">
         <v>53</v>
       </c>
-      <c r="S23" s="31"/>
+      <c r="S23" s="50"/>
     </row>
     <row r="24" spans="2:19" x14ac:dyDescent="0.2">
       <c r="R24" s="8">
@@ -2250,8 +2204,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1C3BBA4-D2BC-4956-A835-6771C7827FAC}">
   <dimension ref="A1:Y32"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S11" sqref="S11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2369,16 +2323,16 @@
       <c r="L2" s="24">
         <v>6</v>
       </c>
-      <c r="M2" s="43" t="s">
+      <c r="M2" s="54" t="s">
         <v>82</v>
       </c>
-      <c r="N2" s="42">
+      <c r="N2" s="55">
         <v>12</v>
       </c>
-      <c r="O2" s="32" t="s">
+      <c r="O2" s="51" t="s">
         <v>84</v>
       </c>
-      <c r="P2" s="32"/>
+      <c r="P2" s="51"/>
     </row>
     <row r="3" spans="1:25" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A3" s="16" t="s">
@@ -2417,10 +2371,10 @@
       <c r="L3" s="24">
         <v>3</v>
       </c>
-      <c r="M3" s="43"/>
-      <c r="N3" s="42"/>
-      <c r="O3" s="41"/>
-      <c r="P3" s="41"/>
+      <c r="M3" s="54"/>
+      <c r="N3" s="55"/>
+      <c r="O3" s="52"/>
+      <c r="P3" s="52"/>
       <c r="S3" s="18"/>
       <c r="T3" s="30"/>
       <c r="U3" s="18"/>
@@ -2463,10 +2417,10 @@
       <c r="L4" s="24">
         <v>3</v>
       </c>
-      <c r="M4" s="43"/>
-      <c r="N4" s="42"/>
-      <c r="O4" s="41"/>
-      <c r="P4" s="41"/>
+      <c r="M4" s="54"/>
+      <c r="N4" s="55"/>
+      <c r="O4" s="52"/>
+      <c r="P4" s="52"/>
       <c r="U4" s="18"/>
       <c r="V4" s="30"/>
       <c r="X4" s="18"/>
@@ -2509,10 +2463,10 @@
       <c r="L5" s="24">
         <v>3</v>
       </c>
-      <c r="M5" s="43"/>
-      <c r="N5" s="42"/>
-      <c r="O5" s="41"/>
-      <c r="P5" s="41"/>
+      <c r="M5" s="54"/>
+      <c r="N5" s="55"/>
+      <c r="O5" s="52"/>
+      <c r="P5" s="52"/>
       <c r="S5" s="18">
         <f>160/16</f>
         <v>10</v>
@@ -2556,10 +2510,10 @@
       <c r="L6" s="24">
         <v>3</v>
       </c>
-      <c r="M6" s="43"/>
-      <c r="N6" s="42"/>
-      <c r="O6" s="41"/>
-      <c r="P6" s="41"/>
+      <c r="M6" s="54"/>
+      <c r="N6" s="55"/>
+      <c r="O6" s="52"/>
+      <c r="P6" s="52"/>
       <c r="S6" s="18">
         <f>64*2</f>
         <v>128</v>
@@ -2609,8 +2563,8 @@
       <c r="N7" s="5">
         <v>3</v>
       </c>
-      <c r="O7" s="33"/>
-      <c r="P7" s="33"/>
+      <c r="O7" s="53"/>
+      <c r="P7" s="53"/>
       <c r="S7" s="18">
         <f>360</f>
         <v>360</v>
@@ -2653,10 +2607,10 @@
       <c r="L8" s="5">
         <v>3</v>
       </c>
-      <c r="M8" s="38" t="s">
+      <c r="M8" s="34" t="s">
         <v>81</v>
       </c>
-      <c r="N8" s="38">
+      <c r="N8" s="34">
         <v>180</v>
       </c>
       <c r="O8" s="5" t="s">
@@ -2685,6 +2639,10 @@
       <c r="N9" s="26"/>
       <c r="O9" s="25"/>
       <c r="P9" s="26"/>
+      <c r="S9" s="4">
+        <f>S13+S14</f>
+        <v>2288</v>
+      </c>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A10" s="27"/>
@@ -2703,6 +2661,10 @@
       <c r="N10" s="28"/>
       <c r="O10" s="27"/>
       <c r="P10" s="28"/>
+      <c r="S10" s="4">
+        <f>S9-2256</f>
+        <v>32</v>
+      </c>
     </row>
     <row r="11" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="14" t="s">
@@ -2760,16 +2722,16 @@
       <c r="P11" s="15"/>
     </row>
     <row r="12" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="R12" s="46" t="s">
+      <c r="R12" s="37" t="s">
         <v>86</v>
       </c>
-      <c r="S12" s="47" t="s">
+      <c r="S12" s="38" t="s">
         <v>89</v>
       </c>
-      <c r="T12" s="47" t="s">
+      <c r="T12" s="38" t="s">
         <v>90</v>
       </c>
-      <c r="U12" s="47" t="s">
+      <c r="U12" s="38" t="s">
         <v>104</v>
       </c>
     </row>
@@ -2805,18 +2767,18 @@
       <c r="Q13" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="R13" s="45" t="s">
+      <c r="R13" s="36" t="s">
         <v>51</v>
       </c>
       <c r="S13" s="15">
         <f>B22+D22+F22+H22+J22+L22</f>
         <v>2048</v>
       </c>
-      <c r="T13" s="49">
+      <c r="T13" s="40">
         <f>5/6*S13</f>
         <v>1706.6666666666667</v>
       </c>
-      <c r="U13" s="53">
+      <c r="U13" s="44">
         <f>T13/$T$21</f>
         <v>0.53112033195020747</v>
       </c>
@@ -2856,18 +2818,18 @@
       <c r="Q14" s="20" t="s">
         <v>96</v>
       </c>
-      <c r="R14" s="45" t="s">
+      <c r="R14" s="36" t="s">
         <v>52</v>
       </c>
       <c r="S14" s="15">
         <f>N22</f>
         <v>240</v>
       </c>
-      <c r="T14" s="49">
+      <c r="T14" s="40">
         <f t="shared" ref="T14:T18" si="6">5/6*S14</f>
         <v>200</v>
       </c>
-      <c r="U14" s="53">
+      <c r="U14" s="44">
         <f t="shared" ref="U14:U21" si="7">T14/$T$21</f>
         <v>6.2240663900414932E-2</v>
       </c>
@@ -2910,22 +2872,22 @@
       <c r="Q15" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="R15" s="45" t="s">
+      <c r="R15" s="36" t="s">
         <v>85</v>
       </c>
       <c r="S15" s="15">
         <f>S13+S14</f>
         <v>2288</v>
       </c>
-      <c r="T15" s="49">
+      <c r="T15" s="40">
         <f t="shared" si="6"/>
         <v>1906.6666666666667</v>
       </c>
-      <c r="U15" s="53">
+      <c r="U15" s="44">
         <f t="shared" si="7"/>
         <v>0.59336099585062241</v>
       </c>
-      <c r="V15" s="52"/>
+      <c r="V15" s="43"/>
       <c r="W15" s="20"/>
     </row>
     <row r="16" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2960,18 +2922,18 @@
       <c r="Q16" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="R16" s="45" t="s">
+      <c r="R16" s="36" t="s">
         <v>87</v>
       </c>
       <c r="S16" s="15">
         <f>16*(H2+L2+N2+D8+F8+H8+J8+J7+L7)</f>
         <v>656</v>
       </c>
-      <c r="T16" s="49">
+      <c r="T16" s="40">
         <f t="shared" si="6"/>
         <v>546.66666666666674</v>
       </c>
-      <c r="U16" s="53">
+      <c r="U16" s="44">
         <f t="shared" si="7"/>
         <v>0.17012448132780084</v>
       </c>
@@ -3008,17 +2970,17 @@
       <c r="Q17" s="20" t="s">
         <v>98</v>
       </c>
-      <c r="R17" s="45" t="s">
+      <c r="R17" s="36" t="s">
         <v>84</v>
       </c>
       <c r="S17" s="15">
         <v>320</v>
       </c>
-      <c r="T17" s="49">
+      <c r="T17" s="40">
         <f t="shared" si="6"/>
         <v>266.66666666666669</v>
       </c>
-      <c r="U17" s="53">
+      <c r="U17" s="44">
         <f t="shared" si="7"/>
         <v>8.2987551867219914E-2</v>
       </c>
@@ -3055,18 +3017,18 @@
       <c r="Q18" s="20" t="s">
         <v>99</v>
       </c>
-      <c r="R18" s="45" t="s">
+      <c r="R18" s="36" t="s">
         <v>88</v>
       </c>
       <c r="S18" s="15">
         <f>N8+P8</f>
         <v>360</v>
       </c>
-      <c r="T18" s="49">
+      <c r="T18" s="40">
         <f t="shared" si="6"/>
         <v>300</v>
       </c>
-      <c r="U18" s="53">
+      <c r="U18" s="44">
         <f t="shared" si="7"/>
         <v>9.3360995850622408E-2</v>
       </c>
@@ -3107,11 +3069,11 @@
       <c r="S19" s="20">
         <v>488</v>
       </c>
-      <c r="T19" s="54">
+      <c r="T19" s="45">
         <f>5/6*S19</f>
         <v>406.66666666666669</v>
       </c>
-      <c r="U19" s="53">
+      <c r="U19" s="44">
         <f>T19/$T$21</f>
         <v>0.12655601659751037</v>
       </c>
@@ -3152,11 +3114,11 @@
       <c r="S20" s="20">
         <v>400</v>
       </c>
-      <c r="T20" s="54">
+      <c r="T20" s="45">
         <f>5/6*S20</f>
         <v>333.33333333333337</v>
       </c>
-      <c r="U20" s="53">
+      <c r="U20" s="44">
         <f t="shared" si="7"/>
         <v>0.1037344398340249</v>
       </c>
@@ -3172,18 +3134,18 @@
       <c r="L21" s="4"/>
       <c r="N21" s="4"/>
       <c r="P21" s="4"/>
-      <c r="R21" s="48" t="s">
+      <c r="R21" s="39" t="s">
         <v>91</v>
       </c>
-      <c r="S21" s="48">
+      <c r="S21" s="39">
         <f>S15+S18+S17+S19+S20</f>
         <v>3856</v>
       </c>
-      <c r="T21" s="50">
+      <c r="T21" s="41">
         <f>T15+T18+T17+T19+T20</f>
         <v>3213.3333333333335</v>
       </c>
-      <c r="U21" s="53">
+      <c r="U21" s="44">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
@@ -3219,16 +3181,16 @@
         <f>SUM(N13:N19)</f>
         <v>240</v>
       </c>
-      <c r="T22" s="51"/>
+      <c r="T22" s="42"/>
       <c r="V22" s="18"/>
       <c r="W22" s="30"/>
     </row>
     <row r="23" spans="2:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="4"/>
-      <c r="R23" s="44" t="s">
+      <c r="R23" s="56" t="s">
         <v>53</v>
       </c>
-      <c r="S23" s="44"/>
+      <c r="S23" s="56"/>
     </row>
     <row r="24" spans="2:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="R24" s="15">
@@ -3297,232 +3259,232 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="57" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="34"/>
+      <c r="B1" s="57"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="35" t="s">
+      <c r="A2" s="31" t="s">
         <v>63</v>
       </c>
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="31" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="36" t="s">
+      <c r="A3" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="B3" s="37">
+      <c r="B3" s="33">
         <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="36" t="s">
+      <c r="A4" s="32" t="s">
         <v>65</v>
       </c>
-      <c r="B4" s="37">
+      <c r="B4" s="33">
         <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="36" t="s">
+      <c r="A5" s="32" t="s">
         <v>64</v>
       </c>
-      <c r="B5" s="37">
+      <c r="B5" s="33">
         <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="36" t="s">
+      <c r="A6" s="32" t="s">
         <v>67</v>
       </c>
-      <c r="B6" s="37">
+      <c r="B6" s="33">
         <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="36" t="s">
+      <c r="A7" s="32" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="37">
+      <c r="B7" s="33">
         <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="36" t="s">
+      <c r="A8" s="32" t="s">
         <v>60</v>
       </c>
-      <c r="B8" s="37">
+      <c r="B8" s="33">
         <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="39"/>
-      <c r="B9" s="39"/>
+      <c r="A9" s="35"/>
+      <c r="B9" s="35"/>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="34" t="s">
+      <c r="A10" s="57" t="s">
         <v>66</v>
       </c>
-      <c r="B10" s="34"/>
+      <c r="B10" s="57"/>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="35" t="s">
+      <c r="A11" s="31" t="s">
         <v>63</v>
       </c>
-      <c r="B11" s="35" t="s">
+      <c r="B11" s="31" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="36" t="s">
+      <c r="A12" s="32" t="s">
         <v>68</v>
       </c>
-      <c r="B12" s="37">
+      <c r="B12" s="33">
         <v>48</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="36" t="s">
+      <c r="A13" s="32" t="s">
         <v>70</v>
       </c>
-      <c r="B13" s="37">
+      <c r="B13" s="33">
         <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="36" t="s">
+      <c r="A14" s="32" t="s">
         <v>75</v>
       </c>
-      <c r="B14" s="37">
+      <c r="B14" s="33">
         <v>48</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="36" t="s">
+      <c r="A15" s="32" t="s">
         <v>72</v>
       </c>
-      <c r="B15" s="37">
+      <c r="B15" s="33">
         <v>48</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="36" t="s">
+      <c r="A16" s="32" t="s">
         <v>74</v>
       </c>
-      <c r="B16" s="37">
+      <c r="B16" s="33">
         <v>48</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="36" t="s">
+      <c r="A17" s="32" t="s">
         <v>71</v>
       </c>
-      <c r="B17" s="37">
+      <c r="B17" s="33">
         <v>48</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="40"/>
-      <c r="B18" s="40"/>
+      <c r="A18" s="35"/>
+      <c r="B18" s="35"/>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="34" t="s">
+      <c r="A19" s="57" t="s">
         <v>69</v>
       </c>
-      <c r="B19" s="34"/>
+      <c r="B19" s="57"/>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="35" t="s">
+      <c r="A20" s="31" t="s">
         <v>63</v>
       </c>
-      <c r="B20" s="35" t="s">
+      <c r="B20" s="31" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="36" t="s">
+      <c r="A21" s="32" t="s">
         <v>73</v>
       </c>
-      <c r="B21" s="37">
+      <c r="B21" s="33">
         <v>48</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="36" t="s">
+      <c r="A22" s="32" t="s">
         <v>105</v>
       </c>
-      <c r="B22" s="37">
+      <c r="B22" s="33">
         <v>48</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="36" t="s">
+      <c r="A23" s="32" t="s">
         <v>106</v>
       </c>
-      <c r="B23" s="37">
+      <c r="B23" s="33">
         <v>48</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="36" t="s">
+      <c r="A24" s="32" t="s">
         <v>76</v>
       </c>
-      <c r="B24" s="37">
+      <c r="B24" s="33">
         <v>48</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="34" t="s">
+      <c r="A26" s="57" t="s">
         <v>79</v>
       </c>
-      <c r="B26" s="34"/>
+      <c r="B26" s="57"/>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="35" t="s">
+      <c r="A27" s="31" t="s">
         <v>63</v>
       </c>
-      <c r="B27" s="35" t="s">
+      <c r="B27" s="31" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="36" t="s">
+      <c r="A28" s="32" t="s">
         <v>77</v>
       </c>
-      <c r="B28" s="37">
+      <c r="B28" s="33">
         <v>48</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="36" t="s">
+      <c r="A29" s="32" t="s">
         <v>78</v>
       </c>
-      <c r="B29" s="37">
+      <c r="B29" s="33">
         <v>48</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="34" t="s">
+      <c r="A31" s="57" t="s">
         <v>102</v>
       </c>
-      <c r="B31" s="34"/>
+      <c r="B31" s="57"/>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="35" t="s">
+      <c r="A32" s="31" t="s">
         <v>63</v>
       </c>
-      <c r="B32" s="35" t="s">
+      <c r="B32" s="31" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="36" t="s">
+      <c r="A33" s="32" t="s">
         <v>103</v>
       </c>
-      <c r="B33" s="36"/>
+      <c r="B33" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -3629,46 +3591,46 @@
       <c r="B2" s="5">
         <v>4</v>
       </c>
-      <c r="C2" s="55" t="s">
+      <c r="C2" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="56">
-        <v>3</v>
-      </c>
-      <c r="E2" s="55" t="s">
+      <c r="D2" s="5">
+        <v>3</v>
+      </c>
+      <c r="E2" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="57">
-        <v>3</v>
-      </c>
-      <c r="G2" s="69" t="s">
+      <c r="F2" s="6">
+        <v>3</v>
+      </c>
+      <c r="G2" s="47" t="s">
         <v>56</v>
       </c>
-      <c r="H2" s="70">
+      <c r="H2" s="48">
         <v>6</v>
       </c>
-      <c r="I2" s="55" t="s">
+      <c r="I2" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="J2" s="56">
-        <v>3</v>
-      </c>
-      <c r="K2" s="69" t="s">
+      <c r="J2" s="5">
+        <v>3</v>
+      </c>
+      <c r="K2" s="47" t="s">
         <v>57</v>
       </c>
-      <c r="L2" s="70">
+      <c r="L2" s="48">
         <v>6</v>
       </c>
-      <c r="M2" s="71" t="s">
+      <c r="M2" s="58" t="s">
         <v>82</v>
       </c>
-      <c r="N2" s="72">
+      <c r="N2" s="59">
         <v>12</v>
       </c>
-      <c r="O2" s="61" t="s">
+      <c r="O2" s="51" t="s">
         <v>84</v>
       </c>
-      <c r="P2" s="61"/>
+      <c r="P2" s="51"/>
     </row>
     <row r="3" spans="1:25" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A3" s="16" t="s">
@@ -3677,40 +3639,40 @@
       <c r="B3" s="5">
         <v>3</v>
       </c>
-      <c r="C3" s="55" t="s">
+      <c r="C3" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="D3" s="56">
-        <v>3</v>
-      </c>
-      <c r="E3" s="55" t="s">
+      <c r="D3" s="5">
+        <v>3</v>
+      </c>
+      <c r="E3" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="F3" s="57">
-        <v>3</v>
-      </c>
-      <c r="G3" s="55" t="s">
+      <c r="F3" s="6">
+        <v>3</v>
+      </c>
+      <c r="G3" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="H3" s="62">
-        <v>3</v>
-      </c>
-      <c r="I3" s="55" t="s">
+      <c r="H3" s="7">
+        <v>3</v>
+      </c>
+      <c r="I3" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="J3" s="56">
+      <c r="J3" s="5">
         <v>4</v>
       </c>
-      <c r="K3" s="55" t="s">
+      <c r="K3" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="L3" s="56">
-        <v>3</v>
-      </c>
-      <c r="M3" s="71"/>
-      <c r="N3" s="72"/>
-      <c r="O3" s="63"/>
-      <c r="P3" s="63"/>
+      <c r="L3" s="5">
+        <v>3</v>
+      </c>
+      <c r="M3" s="58"/>
+      <c r="N3" s="59"/>
+      <c r="O3" s="52"/>
+      <c r="P3" s="52"/>
       <c r="S3" s="18"/>
       <c r="T3" s="30"/>
       <c r="U3" s="18"/>
@@ -3723,40 +3685,40 @@
       <c r="B4" s="5">
         <v>3</v>
       </c>
-      <c r="C4" s="55" t="s">
+      <c r="C4" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="D4" s="57">
+      <c r="D4" s="6">
         <v>2</v>
       </c>
-      <c r="E4" s="64" t="s">
+      <c r="E4" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="65">
+      <c r="F4" s="10">
         <v>4</v>
       </c>
-      <c r="G4" s="64" t="s">
+      <c r="G4" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="H4" s="66">
-        <v>3</v>
-      </c>
-      <c r="I4" s="64" t="s">
+      <c r="H4" s="11">
+        <v>3</v>
+      </c>
+      <c r="I4" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="J4" s="56">
-        <v>3</v>
-      </c>
-      <c r="K4" s="55" t="s">
-        <v>48</v>
-      </c>
-      <c r="L4" s="56">
-        <v>3</v>
-      </c>
-      <c r="M4" s="71"/>
-      <c r="N4" s="72"/>
-      <c r="O4" s="63"/>
-      <c r="P4" s="63"/>
+      <c r="J4" s="5">
+        <v>3</v>
+      </c>
+      <c r="K4" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="L4" s="5">
+        <v>3</v>
+      </c>
+      <c r="M4" s="58"/>
+      <c r="N4" s="59"/>
+      <c r="O4" s="52"/>
+      <c r="P4" s="52"/>
       <c r="U4" s="18"/>
       <c r="V4" s="30"/>
       <c r="X4" s="18"/>
@@ -3769,40 +3731,40 @@
       <c r="B5" s="9">
         <v>3</v>
       </c>
-      <c r="C5" s="64" t="s">
+      <c r="C5" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="67">
-        <v>3</v>
-      </c>
-      <c r="E5" s="55" t="s">
+      <c r="D5" s="9">
+        <v>3</v>
+      </c>
+      <c r="E5" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="F5" s="56">
+      <c r="F5" s="5">
         <v>2</v>
       </c>
-      <c r="G5" s="55" t="s">
+      <c r="G5" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="H5" s="56">
-        <v>3</v>
-      </c>
-      <c r="I5" s="55" t="s">
+      <c r="H5" s="5">
+        <v>3</v>
+      </c>
+      <c r="I5" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="J5" s="56">
-        <v>3</v>
-      </c>
-      <c r="K5" s="55" t="s">
+      <c r="J5" s="5">
+        <v>3</v>
+      </c>
+      <c r="K5" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="L5" s="56">
-        <v>3</v>
-      </c>
-      <c r="M5" s="71"/>
-      <c r="N5" s="72"/>
-      <c r="O5" s="63"/>
-      <c r="P5" s="63"/>
+      <c r="L5" s="5">
+        <v>3</v>
+      </c>
+      <c r="M5" s="58"/>
+      <c r="N5" s="59"/>
+      <c r="O5" s="52"/>
+      <c r="P5" s="52"/>
       <c r="S5" s="18">
         <f>160/16</f>
         <v>10</v>
@@ -3816,40 +3778,40 @@
       <c r="B6" s="5">
         <v>3</v>
       </c>
-      <c r="C6" s="55" t="s">
+      <c r="C6" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="56">
-        <v>3</v>
-      </c>
-      <c r="E6" s="55" t="s">
+      <c r="D6" s="5">
+        <v>3</v>
+      </c>
+      <c r="E6" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="F6" s="56">
-        <v>3</v>
-      </c>
-      <c r="G6" s="55" t="s">
+      <c r="F6" s="5">
+        <v>3</v>
+      </c>
+      <c r="G6" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="H6" s="62">
-        <v>3</v>
-      </c>
-      <c r="I6" s="55" t="s">
+      <c r="H6" s="7">
+        <v>3</v>
+      </c>
+      <c r="I6" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="J6" s="56">
-        <v>3</v>
-      </c>
-      <c r="K6" s="55" t="s">
+      <c r="J6" s="5">
+        <v>3</v>
+      </c>
+      <c r="K6" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="L6" s="56">
-        <v>3</v>
-      </c>
-      <c r="M6" s="71"/>
-      <c r="N6" s="72"/>
-      <c r="O6" s="63"/>
-      <c r="P6" s="63"/>
+      <c r="L6" s="5">
+        <v>3</v>
+      </c>
+      <c r="M6" s="58"/>
+      <c r="N6" s="59"/>
+      <c r="O6" s="52"/>
+      <c r="P6" s="52"/>
       <c r="S6" s="18">
         <f>64*2</f>
         <v>128</v>
@@ -3863,44 +3825,44 @@
       <c r="B7" s="5">
         <v>3</v>
       </c>
-      <c r="C7" s="55" t="s">
+      <c r="C7" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="D7" s="67">
-        <v>3</v>
-      </c>
-      <c r="E7" s="55" t="s">
+      <c r="D7" s="9">
+        <v>3</v>
+      </c>
+      <c r="E7" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="F7" s="56">
+      <c r="F7" s="5">
         <v>2</v>
       </c>
-      <c r="G7" s="55" t="s">
+      <c r="G7" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="H7" s="56">
-        <v>3</v>
-      </c>
-      <c r="I7" s="55" t="s">
+      <c r="H7" s="5">
+        <v>3</v>
+      </c>
+      <c r="I7" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="J7" s="56">
-        <v>3</v>
-      </c>
-      <c r="K7" s="55" t="s">
+      <c r="J7" s="5">
+        <v>3</v>
+      </c>
+      <c r="K7" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="L7" s="56">
-        <v>3</v>
-      </c>
-      <c r="M7" s="55" t="s">
+      <c r="L7" s="5">
+        <v>3</v>
+      </c>
+      <c r="M7" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="N7" s="56">
-        <v>3</v>
-      </c>
-      <c r="O7" s="68"/>
-      <c r="P7" s="68"/>
+      <c r="N7" s="5">
+        <v>3</v>
+      </c>
+      <c r="O7" s="53"/>
+      <c r="P7" s="53"/>
       <c r="S7" s="18">
         <f>360</f>
         <v>360</v>
@@ -3913,46 +3875,46 @@
     <row r="8" spans="1:25" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A8" s="16"/>
       <c r="B8" s="5"/>
-      <c r="C8" s="55" t="s">
+      <c r="C8" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="D8" s="56">
+      <c r="D8" s="5">
         <v>2</v>
       </c>
-      <c r="E8" s="55" t="s">
+      <c r="E8" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="F8" s="56">
-        <v>3</v>
-      </c>
-      <c r="G8" s="55" t="s">
+      <c r="F8" s="5">
+        <v>3</v>
+      </c>
+      <c r="G8" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="H8" s="56">
-        <v>3</v>
-      </c>
-      <c r="I8" s="55" t="s">
+      <c r="H8" s="5">
+        <v>3</v>
+      </c>
+      <c r="I8" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="J8" s="56">
-        <v>3</v>
-      </c>
-      <c r="K8" s="55" t="s">
+      <c r="J8" s="5">
+        <v>3</v>
+      </c>
+      <c r="K8" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="L8" s="56">
-        <v>3</v>
-      </c>
-      <c r="M8" s="56" t="s">
+      <c r="L8" s="5">
+        <v>3</v>
+      </c>
+      <c r="M8" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="N8" s="56">
+      <c r="N8" s="5">
         <v>180</v>
       </c>
-      <c r="O8" s="56" t="s">
+      <c r="O8" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="P8" s="56">
+      <c r="P8" s="5">
         <v>180</v>
       </c>
       <c r="S8" s="18"/>
@@ -4050,16 +4012,16 @@
       <c r="P11" s="15"/>
     </row>
     <row r="12" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="R12" s="46" t="s">
+      <c r="R12" s="37" t="s">
         <v>86</v>
       </c>
-      <c r="S12" s="47" t="s">
+      <c r="S12" s="38" t="s">
         <v>89</v>
       </c>
-      <c r="T12" s="47" t="s">
+      <c r="T12" s="38" t="s">
         <v>90</v>
       </c>
-      <c r="U12" s="47" t="s">
+      <c r="U12" s="38" t="s">
         <v>104</v>
       </c>
     </row>
@@ -4095,18 +4057,18 @@
       <c r="Q13" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="R13" s="45" t="s">
+      <c r="R13" s="36" t="s">
         <v>51</v>
       </c>
       <c r="S13" s="15">
         <f>B22+D22+F22+H22+J22+L22</f>
         <v>2048</v>
       </c>
-      <c r="T13" s="49">
+      <c r="T13" s="40">
         <f>5/6*S13</f>
         <v>1706.6666666666667</v>
       </c>
-      <c r="U13" s="53">
+      <c r="U13" s="44">
         <f>T13/$T$21</f>
         <v>0.53112033195020747</v>
       </c>
@@ -4146,18 +4108,18 @@
       <c r="Q14" s="20" t="s">
         <v>96</v>
       </c>
-      <c r="R14" s="45" t="s">
+      <c r="R14" s="36" t="s">
         <v>52</v>
       </c>
       <c r="S14" s="15">
         <f>N22</f>
         <v>240</v>
       </c>
-      <c r="T14" s="49">
+      <c r="T14" s="40">
         <f t="shared" ref="T14:T18" si="6">5/6*S14</f>
         <v>200</v>
       </c>
-      <c r="U14" s="53">
+      <c r="U14" s="44">
         <f t="shared" ref="U14:U21" si="7">T14/$T$21</f>
         <v>6.2240663900414932E-2</v>
       </c>
@@ -4200,22 +4162,22 @@
       <c r="Q15" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="R15" s="45" t="s">
+      <c r="R15" s="36" t="s">
         <v>85</v>
       </c>
       <c r="S15" s="15">
         <f>S13+S14</f>
         <v>2288</v>
       </c>
-      <c r="T15" s="49">
+      <c r="T15" s="40">
         <f t="shared" si="6"/>
         <v>1906.6666666666667</v>
       </c>
-      <c r="U15" s="53">
+      <c r="U15" s="44">
         <f t="shared" si="7"/>
         <v>0.59336099585062241</v>
       </c>
-      <c r="V15" s="52"/>
+      <c r="V15" s="43"/>
       <c r="W15" s="20"/>
     </row>
     <row r="16" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4250,18 +4212,18 @@
       <c r="Q16" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="R16" s="45" t="s">
+      <c r="R16" s="36" t="s">
         <v>87</v>
       </c>
       <c r="S16" s="15">
         <f>16*(H2+L2+N2+D8+F8+H8+J8+J7+L7)</f>
         <v>656</v>
       </c>
-      <c r="T16" s="49">
+      <c r="T16" s="40">
         <f t="shared" si="6"/>
         <v>546.66666666666674</v>
       </c>
-      <c r="U16" s="53">
+      <c r="U16" s="44">
         <f t="shared" si="7"/>
         <v>0.17012448132780084</v>
       </c>
@@ -4298,17 +4260,17 @@
       <c r="Q17" s="20" t="s">
         <v>98</v>
       </c>
-      <c r="R17" s="45" t="s">
+      <c r="R17" s="36" t="s">
         <v>84</v>
       </c>
       <c r="S17" s="15">
         <v>320</v>
       </c>
-      <c r="T17" s="49">
+      <c r="T17" s="40">
         <f t="shared" si="6"/>
         <v>266.66666666666669</v>
       </c>
-      <c r="U17" s="53">
+      <c r="U17" s="44">
         <f t="shared" si="7"/>
         <v>8.2987551867219914E-2</v>
       </c>
@@ -4345,18 +4307,18 @@
       <c r="Q18" s="20" t="s">
         <v>99</v>
       </c>
-      <c r="R18" s="45" t="s">
+      <c r="R18" s="36" t="s">
         <v>88</v>
       </c>
       <c r="S18" s="15">
         <f>N8+P8</f>
         <v>360</v>
       </c>
-      <c r="T18" s="49">
+      <c r="T18" s="40">
         <f t="shared" si="6"/>
         <v>300</v>
       </c>
-      <c r="U18" s="53">
+      <c r="U18" s="44">
         <f t="shared" si="7"/>
         <v>9.3360995850622408E-2</v>
       </c>
@@ -4397,11 +4359,11 @@
       <c r="S19" s="20">
         <v>488</v>
       </c>
-      <c r="T19" s="54">
+      <c r="T19" s="45">
         <f>5/6*S19</f>
         <v>406.66666666666669</v>
       </c>
-      <c r="U19" s="53">
+      <c r="U19" s="44">
         <f>T19/$T$21</f>
         <v>0.12655601659751037</v>
       </c>
@@ -4442,11 +4404,11 @@
       <c r="S20" s="20">
         <v>400</v>
       </c>
-      <c r="T20" s="54">
+      <c r="T20" s="45">
         <f>5/6*S20</f>
         <v>333.33333333333337</v>
       </c>
-      <c r="U20" s="53">
+      <c r="U20" s="44">
         <f t="shared" si="7"/>
         <v>0.1037344398340249</v>
       </c>
@@ -4462,18 +4424,18 @@
       <c r="L21" s="4"/>
       <c r="N21" s="4"/>
       <c r="P21" s="4"/>
-      <c r="R21" s="48" t="s">
+      <c r="R21" s="39" t="s">
         <v>91</v>
       </c>
-      <c r="S21" s="48">
+      <c r="S21" s="39">
         <f>S15+S18+S17+S19+S20</f>
         <v>3856</v>
       </c>
-      <c r="T21" s="50">
+      <c r="T21" s="41">
         <f>T15+T18+T17+T19+T20</f>
         <v>3213.3333333333335</v>
       </c>
-      <c r="U21" s="53">
+      <c r="U21" s="44">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
@@ -4509,16 +4471,16 @@
         <f>SUM(N13:N19)</f>
         <v>240</v>
       </c>
-      <c r="T22" s="51"/>
+      <c r="T22" s="42"/>
       <c r="V22" s="18"/>
       <c r="W22" s="30"/>
     </row>
     <row r="23" spans="2:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="4"/>
-      <c r="R23" s="44" t="s">
+      <c r="R23" s="56" t="s">
         <v>53</v>
       </c>
-      <c r="S23" s="44"/>
+      <c r="S23" s="56"/>
     </row>
     <row r="24" spans="2:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="R24" s="15">
@@ -4665,46 +4627,46 @@
       <c r="B2" s="5">
         <v>4</v>
       </c>
-      <c r="C2" s="55" t="s">
+      <c r="C2" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="56">
-        <v>3</v>
-      </c>
-      <c r="E2" s="55" t="s">
+      <c r="D2" s="5">
+        <v>3</v>
+      </c>
+      <c r="E2" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="57">
-        <v>3</v>
-      </c>
-      <c r="G2" s="69" t="s">
+      <c r="F2" s="6">
+        <v>3</v>
+      </c>
+      <c r="G2" s="47" t="s">
         <v>56</v>
       </c>
-      <c r="H2" s="70">
+      <c r="H2" s="48">
         <v>6</v>
       </c>
-      <c r="I2" s="55" t="s">
+      <c r="I2" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="J2" s="56">
-        <v>3</v>
-      </c>
-      <c r="K2" s="73" t="s">
+      <c r="J2" s="5">
+        <v>3</v>
+      </c>
+      <c r="K2" s="49" t="s">
         <v>57</v>
       </c>
-      <c r="L2" s="70">
+      <c r="L2" s="48">
         <v>6</v>
       </c>
-      <c r="M2" s="59" t="s">
+      <c r="M2" s="54" t="s">
         <v>82</v>
       </c>
-      <c r="N2" s="60">
+      <c r="N2" s="55">
         <v>12</v>
       </c>
-      <c r="O2" s="61" t="s">
+      <c r="O2" s="51" t="s">
         <v>84</v>
       </c>
-      <c r="P2" s="61"/>
+      <c r="P2" s="51"/>
     </row>
     <row r="3" spans="1:25" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A3" s="16" t="s">
@@ -4713,40 +4675,40 @@
       <c r="B3" s="5">
         <v>3</v>
       </c>
-      <c r="C3" s="55" t="s">
+      <c r="C3" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="D3" s="56">
-        <v>3</v>
-      </c>
-      <c r="E3" s="55" t="s">
+      <c r="D3" s="5">
+        <v>3</v>
+      </c>
+      <c r="E3" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="F3" s="57">
-        <v>3</v>
-      </c>
-      <c r="G3" s="55" t="s">
+      <c r="F3" s="6">
+        <v>3</v>
+      </c>
+      <c r="G3" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="H3" s="62">
-        <v>3</v>
-      </c>
-      <c r="I3" s="55" t="s">
+      <c r="H3" s="7">
+        <v>3</v>
+      </c>
+      <c r="I3" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="J3" s="56">
+      <c r="J3" s="5">
         <v>4</v>
       </c>
-      <c r="K3" s="55" t="s">
+      <c r="K3" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="L3" s="56">
-        <v>3</v>
-      </c>
-      <c r="M3" s="59"/>
-      <c r="N3" s="60"/>
-      <c r="O3" s="63"/>
-      <c r="P3" s="63"/>
+      <c r="L3" s="5">
+        <v>3</v>
+      </c>
+      <c r="M3" s="54"/>
+      <c r="N3" s="55"/>
+      <c r="O3" s="52"/>
+      <c r="P3" s="52"/>
       <c r="S3" s="18"/>
       <c r="T3" s="30"/>
       <c r="U3" s="18"/>
@@ -4759,40 +4721,40 @@
       <c r="B4" s="5">
         <v>3</v>
       </c>
-      <c r="C4" s="55" t="s">
+      <c r="C4" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="D4" s="57">
+      <c r="D4" s="6">
         <v>2</v>
       </c>
-      <c r="E4" s="64" t="s">
+      <c r="E4" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="65">
+      <c r="F4" s="10">
         <v>4</v>
       </c>
-      <c r="G4" s="64" t="s">
+      <c r="G4" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="H4" s="66">
-        <v>3</v>
-      </c>
-      <c r="I4" s="64" t="s">
+      <c r="H4" s="11">
+        <v>3</v>
+      </c>
+      <c r="I4" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="J4" s="56">
-        <v>3</v>
-      </c>
-      <c r="K4" s="55" t="s">
-        <v>48</v>
-      </c>
-      <c r="L4" s="56">
-        <v>3</v>
-      </c>
-      <c r="M4" s="59"/>
-      <c r="N4" s="60"/>
-      <c r="O4" s="63"/>
-      <c r="P4" s="63"/>
+      <c r="J4" s="5">
+        <v>3</v>
+      </c>
+      <c r="K4" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="L4" s="5">
+        <v>3</v>
+      </c>
+      <c r="M4" s="54"/>
+      <c r="N4" s="55"/>
+      <c r="O4" s="52"/>
+      <c r="P4" s="52"/>
       <c r="U4" s="18"/>
       <c r="V4" s="30"/>
       <c r="X4" s="18"/>
@@ -4805,40 +4767,40 @@
       <c r="B5" s="9">
         <v>3</v>
       </c>
-      <c r="C5" s="64" t="s">
+      <c r="C5" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="67">
-        <v>3</v>
-      </c>
-      <c r="E5" s="55" t="s">
+      <c r="D5" s="9">
+        <v>3</v>
+      </c>
+      <c r="E5" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="F5" s="56">
+      <c r="F5" s="5">
         <v>2</v>
       </c>
-      <c r="G5" s="55" t="s">
+      <c r="G5" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="H5" s="56">
-        <v>3</v>
-      </c>
-      <c r="I5" s="55" t="s">
+      <c r="H5" s="5">
+        <v>3</v>
+      </c>
+      <c r="I5" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="J5" s="56">
-        <v>3</v>
-      </c>
-      <c r="K5" s="55" t="s">
+      <c r="J5" s="5">
+        <v>3</v>
+      </c>
+      <c r="K5" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="L5" s="56">
-        <v>3</v>
-      </c>
-      <c r="M5" s="59"/>
-      <c r="N5" s="60"/>
-      <c r="O5" s="63"/>
-      <c r="P5" s="63"/>
+      <c r="L5" s="5">
+        <v>3</v>
+      </c>
+      <c r="M5" s="54"/>
+      <c r="N5" s="55"/>
+      <c r="O5" s="52"/>
+      <c r="P5" s="52"/>
       <c r="S5" s="18">
         <f>160/16</f>
         <v>10</v>
@@ -4852,40 +4814,40 @@
       <c r="B6" s="5">
         <v>3</v>
       </c>
-      <c r="C6" s="55" t="s">
+      <c r="C6" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="56">
-        <v>3</v>
-      </c>
-      <c r="E6" s="55" t="s">
+      <c r="D6" s="5">
+        <v>3</v>
+      </c>
+      <c r="E6" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="F6" s="56">
-        <v>3</v>
-      </c>
-      <c r="G6" s="55" t="s">
+      <c r="F6" s="5">
+        <v>3</v>
+      </c>
+      <c r="G6" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="H6" s="62">
-        <v>3</v>
-      </c>
-      <c r="I6" s="55" t="s">
+      <c r="H6" s="7">
+        <v>3</v>
+      </c>
+      <c r="I6" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="J6" s="56">
-        <v>3</v>
-      </c>
-      <c r="K6" s="55" t="s">
+      <c r="J6" s="5">
+        <v>3</v>
+      </c>
+      <c r="K6" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="L6" s="56">
-        <v>3</v>
-      </c>
-      <c r="M6" s="59"/>
-      <c r="N6" s="60"/>
-      <c r="O6" s="63"/>
-      <c r="P6" s="63"/>
+      <c r="L6" s="5">
+        <v>3</v>
+      </c>
+      <c r="M6" s="54"/>
+      <c r="N6" s="55"/>
+      <c r="O6" s="52"/>
+      <c r="P6" s="52"/>
       <c r="S6" s="18">
         <f>64*2</f>
         <v>128</v>
@@ -4899,44 +4861,44 @@
       <c r="B7" s="5">
         <v>3</v>
       </c>
-      <c r="C7" s="55" t="s">
+      <c r="C7" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="D7" s="67">
-        <v>3</v>
-      </c>
-      <c r="E7" s="55" t="s">
+      <c r="D7" s="9">
+        <v>3</v>
+      </c>
+      <c r="E7" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="F7" s="56">
+      <c r="F7" s="5">
         <v>2</v>
       </c>
-      <c r="G7" s="55" t="s">
+      <c r="G7" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="H7" s="56">
-        <v>3</v>
-      </c>
-      <c r="I7" s="69" t="s">
+      <c r="H7" s="5">
+        <v>3</v>
+      </c>
+      <c r="I7" s="47" t="s">
         <v>37</v>
       </c>
-      <c r="J7" s="70">
-        <v>3</v>
-      </c>
-      <c r="K7" s="69" t="s">
+      <c r="J7" s="48">
+        <v>3</v>
+      </c>
+      <c r="K7" s="47" t="s">
         <v>36</v>
       </c>
-      <c r="L7" s="70">
-        <v>3</v>
-      </c>
-      <c r="M7" s="55" t="s">
+      <c r="L7" s="48">
+        <v>3</v>
+      </c>
+      <c r="M7" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="N7" s="56">
-        <v>3</v>
-      </c>
-      <c r="O7" s="68"/>
-      <c r="P7" s="68"/>
+      <c r="N7" s="5">
+        <v>3</v>
+      </c>
+      <c r="O7" s="53"/>
+      <c r="P7" s="53"/>
       <c r="S7" s="18">
         <f>360</f>
         <v>360</v>
@@ -4949,46 +4911,46 @@
     <row r="8" spans="1:25" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A8" s="16"/>
       <c r="B8" s="5"/>
-      <c r="C8" s="69" t="s">
+      <c r="C8" s="47" t="s">
         <v>38</v>
       </c>
-      <c r="D8" s="70">
+      <c r="D8" s="48">
         <v>2</v>
       </c>
-      <c r="E8" s="69" t="s">
+      <c r="E8" s="47" t="s">
         <v>32</v>
       </c>
-      <c r="F8" s="70">
-        <v>3</v>
-      </c>
-      <c r="G8" s="69" t="s">
+      <c r="F8" s="48">
+        <v>3</v>
+      </c>
+      <c r="G8" s="47" t="s">
         <v>24</v>
       </c>
-      <c r="H8" s="70">
-        <v>3</v>
-      </c>
-      <c r="I8" s="69" t="s">
+      <c r="H8" s="48">
+        <v>3</v>
+      </c>
+      <c r="I8" s="47" t="s">
         <v>42</v>
       </c>
-      <c r="J8" s="70">
-        <v>3</v>
-      </c>
-      <c r="K8" s="55" t="s">
+      <c r="J8" s="48">
+        <v>3</v>
+      </c>
+      <c r="K8" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="L8" s="56">
-        <v>3</v>
-      </c>
-      <c r="M8" s="56" t="s">
+      <c r="L8" s="5">
+        <v>3</v>
+      </c>
+      <c r="M8" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="N8" s="56">
+      <c r="N8" s="5">
         <v>180</v>
       </c>
-      <c r="O8" s="56" t="s">
+      <c r="O8" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="P8" s="56">
+      <c r="P8" s="5">
         <v>180</v>
       </c>
       <c r="S8" s="18"/>
@@ -5086,16 +5048,16 @@
       <c r="P11" s="15"/>
     </row>
     <row r="12" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="R12" s="46" t="s">
+      <c r="R12" s="37" t="s">
         <v>86</v>
       </c>
-      <c r="S12" s="47" t="s">
+      <c r="S12" s="38" t="s">
         <v>89</v>
       </c>
-      <c r="T12" s="47" t="s">
+      <c r="T12" s="38" t="s">
         <v>90</v>
       </c>
-      <c r="U12" s="47" t="s">
+      <c r="U12" s="38" t="s">
         <v>104</v>
       </c>
     </row>
@@ -5131,18 +5093,18 @@
       <c r="Q13" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="R13" s="45" t="s">
+      <c r="R13" s="36" t="s">
         <v>51</v>
       </c>
       <c r="S13" s="15">
         <f>B22+D22+F22+H22+J22+L22</f>
         <v>2048</v>
       </c>
-      <c r="T13" s="49">
+      <c r="T13" s="40">
         <f>5/6*S13</f>
         <v>1706.6666666666667</v>
       </c>
-      <c r="U13" s="53">
+      <c r="U13" s="44">
         <f>T13/$T$21</f>
         <v>0.53112033195020747</v>
       </c>
@@ -5182,18 +5144,18 @@
       <c r="Q14" s="20" t="s">
         <v>96</v>
       </c>
-      <c r="R14" s="45" t="s">
+      <c r="R14" s="36" t="s">
         <v>52</v>
       </c>
       <c r="S14" s="15">
         <f>N22</f>
         <v>240</v>
       </c>
-      <c r="T14" s="49">
+      <c r="T14" s="40">
         <f t="shared" ref="T14:T18" si="6">5/6*S14</f>
         <v>200</v>
       </c>
-      <c r="U14" s="53">
+      <c r="U14" s="44">
         <f t="shared" ref="U14:U21" si="7">T14/$T$21</f>
         <v>6.2240663900414932E-2</v>
       </c>
@@ -5236,22 +5198,22 @@
       <c r="Q15" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="R15" s="45" t="s">
+      <c r="R15" s="36" t="s">
         <v>85</v>
       </c>
       <c r="S15" s="15">
         <f>S13+S14</f>
         <v>2288</v>
       </c>
-      <c r="T15" s="49">
+      <c r="T15" s="40">
         <f t="shared" si="6"/>
         <v>1906.6666666666667</v>
       </c>
-      <c r="U15" s="53">
+      <c r="U15" s="44">
         <f t="shared" si="7"/>
         <v>0.59336099585062241</v>
       </c>
-      <c r="V15" s="52"/>
+      <c r="V15" s="43"/>
       <c r="W15" s="20"/>
     </row>
     <row r="16" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5286,18 +5248,18 @@
       <c r="Q16" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="R16" s="45" t="s">
+      <c r="R16" s="36" t="s">
         <v>87</v>
       </c>
       <c r="S16" s="15">
         <f>16*(H2+L2+N2+D8+F8+H8+J8+J7+L7)</f>
         <v>656</v>
       </c>
-      <c r="T16" s="49">
+      <c r="T16" s="40">
         <f t="shared" si="6"/>
         <v>546.66666666666674</v>
       </c>
-      <c r="U16" s="53">
+      <c r="U16" s="44">
         <f t="shared" si="7"/>
         <v>0.17012448132780084</v>
       </c>
@@ -5334,17 +5296,17 @@
       <c r="Q17" s="20" t="s">
         <v>98</v>
       </c>
-      <c r="R17" s="45" t="s">
+      <c r="R17" s="36" t="s">
         <v>84</v>
       </c>
       <c r="S17" s="15">
         <v>320</v>
       </c>
-      <c r="T17" s="49">
+      <c r="T17" s="40">
         <f t="shared" si="6"/>
         <v>266.66666666666669</v>
       </c>
-      <c r="U17" s="53">
+      <c r="U17" s="44">
         <f t="shared" si="7"/>
         <v>8.2987551867219914E-2</v>
       </c>
@@ -5381,18 +5343,18 @@
       <c r="Q18" s="20" t="s">
         <v>99</v>
       </c>
-      <c r="R18" s="45" t="s">
+      <c r="R18" s="36" t="s">
         <v>88</v>
       </c>
       <c r="S18" s="15">
         <f>N8+P8</f>
         <v>360</v>
       </c>
-      <c r="T18" s="49">
+      <c r="T18" s="40">
         <f t="shared" si="6"/>
         <v>300</v>
       </c>
-      <c r="U18" s="53">
+      <c r="U18" s="44">
         <f t="shared" si="7"/>
         <v>9.3360995850622408E-2</v>
       </c>
@@ -5433,11 +5395,11 @@
       <c r="S19" s="20">
         <v>488</v>
       </c>
-      <c r="T19" s="54">
+      <c r="T19" s="45">
         <f>5/6*S19</f>
         <v>406.66666666666669</v>
       </c>
-      <c r="U19" s="53">
+      <c r="U19" s="44">
         <f>T19/$T$21</f>
         <v>0.12655601659751037</v>
       </c>
@@ -5478,11 +5440,11 @@
       <c r="S20" s="20">
         <v>400</v>
       </c>
-      <c r="T20" s="54">
+      <c r="T20" s="45">
         <f>5/6*S20</f>
         <v>333.33333333333337</v>
       </c>
-      <c r="U20" s="53">
+      <c r="U20" s="44">
         <f t="shared" si="7"/>
         <v>0.1037344398340249</v>
       </c>
@@ -5498,18 +5460,18 @@
       <c r="L21" s="4"/>
       <c r="N21" s="4"/>
       <c r="P21" s="4"/>
-      <c r="R21" s="48" t="s">
+      <c r="R21" s="39" t="s">
         <v>91</v>
       </c>
-      <c r="S21" s="48">
+      <c r="S21" s="39">
         <f>S15+S18+S17+S19+S20</f>
         <v>3856</v>
       </c>
-      <c r="T21" s="50">
+      <c r="T21" s="41">
         <f>T15+T18+T17+T19+T20</f>
         <v>3213.3333333333335</v>
       </c>
-      <c r="U21" s="53">
+      <c r="U21" s="44">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
@@ -5545,16 +5507,16 @@
         <f>SUM(N13:N19)</f>
         <v>240</v>
       </c>
-      <c r="T22" s="51"/>
+      <c r="T22" s="42"/>
       <c r="V22" s="18"/>
       <c r="W22" s="30"/>
     </row>
     <row r="23" spans="2:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="4"/>
-      <c r="R23" s="44" t="s">
+      <c r="R23" s="56" t="s">
         <v>53</v>
       </c>
-      <c r="S23" s="44"/>
+      <c r="S23" s="56"/>
     </row>
     <row r="24" spans="2:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="R24" s="15">
@@ -5701,46 +5663,46 @@
       <c r="B2" s="5">
         <v>4</v>
       </c>
-      <c r="C2" s="55" t="s">
+      <c r="C2" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="56">
-        <v>3</v>
-      </c>
-      <c r="E2" s="55" t="s">
+      <c r="D2" s="5">
+        <v>3</v>
+      </c>
+      <c r="E2" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="57">
-        <v>3</v>
-      </c>
-      <c r="G2" s="55" t="s">
+      <c r="F2" s="6">
+        <v>3</v>
+      </c>
+      <c r="G2" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="H2" s="56">
+      <c r="H2" s="5">
         <v>6</v>
       </c>
-      <c r="I2" s="55" t="s">
+      <c r="I2" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="J2" s="56">
-        <v>3</v>
-      </c>
-      <c r="K2" s="58" t="s">
+      <c r="J2" s="5">
+        <v>3</v>
+      </c>
+      <c r="K2" s="46" t="s">
         <v>57</v>
       </c>
-      <c r="L2" s="56">
+      <c r="L2" s="5">
         <v>6</v>
       </c>
-      <c r="M2" s="59" t="s">
+      <c r="M2" s="54" t="s">
         <v>82</v>
       </c>
-      <c r="N2" s="60">
+      <c r="N2" s="55">
         <v>12</v>
       </c>
-      <c r="O2" s="61" t="s">
+      <c r="O2" s="51" t="s">
         <v>84</v>
       </c>
-      <c r="P2" s="61"/>
+      <c r="P2" s="51"/>
     </row>
     <row r="3" spans="1:25" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A3" s="16" t="s">
@@ -5749,40 +5711,40 @@
       <c r="B3" s="5">
         <v>3</v>
       </c>
-      <c r="C3" s="55" t="s">
+      <c r="C3" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="D3" s="56">
-        <v>3</v>
-      </c>
-      <c r="E3" s="55" t="s">
+      <c r="D3" s="5">
+        <v>3</v>
+      </c>
+      <c r="E3" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="F3" s="57">
-        <v>3</v>
-      </c>
-      <c r="G3" s="55" t="s">
+      <c r="F3" s="6">
+        <v>3</v>
+      </c>
+      <c r="G3" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="H3" s="62">
-        <v>3</v>
-      </c>
-      <c r="I3" s="55" t="s">
+      <c r="H3" s="7">
+        <v>3</v>
+      </c>
+      <c r="I3" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="J3" s="56">
+      <c r="J3" s="5">
         <v>4</v>
       </c>
-      <c r="K3" s="55" t="s">
+      <c r="K3" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="L3" s="56">
-        <v>3</v>
-      </c>
-      <c r="M3" s="59"/>
-      <c r="N3" s="60"/>
-      <c r="O3" s="63"/>
-      <c r="P3" s="63"/>
+      <c r="L3" s="5">
+        <v>3</v>
+      </c>
+      <c r="M3" s="54"/>
+      <c r="N3" s="55"/>
+      <c r="O3" s="52"/>
+      <c r="P3" s="52"/>
       <c r="S3" s="18"/>
       <c r="T3" s="30"/>
       <c r="U3" s="18"/>
@@ -5795,40 +5757,40 @@
       <c r="B4" s="5">
         <v>3</v>
       </c>
-      <c r="C4" s="55" t="s">
+      <c r="C4" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="D4" s="57">
+      <c r="D4" s="6">
         <v>2</v>
       </c>
-      <c r="E4" s="64" t="s">
+      <c r="E4" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="65">
+      <c r="F4" s="10">
         <v>4</v>
       </c>
-      <c r="G4" s="64" t="s">
+      <c r="G4" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="H4" s="66">
-        <v>3</v>
-      </c>
-      <c r="I4" s="64" t="s">
+      <c r="H4" s="11">
+        <v>3</v>
+      </c>
+      <c r="I4" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="J4" s="56">
-        <v>3</v>
-      </c>
-      <c r="K4" s="55" t="s">
-        <v>48</v>
-      </c>
-      <c r="L4" s="56">
-        <v>3</v>
-      </c>
-      <c r="M4" s="59"/>
-      <c r="N4" s="60"/>
-      <c r="O4" s="63"/>
-      <c r="P4" s="63"/>
+      <c r="J4" s="5">
+        <v>3</v>
+      </c>
+      <c r="K4" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="L4" s="5">
+        <v>3</v>
+      </c>
+      <c r="M4" s="54"/>
+      <c r="N4" s="55"/>
+      <c r="O4" s="52"/>
+      <c r="P4" s="52"/>
       <c r="U4" s="18"/>
       <c r="V4" s="30"/>
       <c r="X4" s="18"/>
@@ -5841,40 +5803,40 @@
       <c r="B5" s="9">
         <v>3</v>
       </c>
-      <c r="C5" s="64" t="s">
+      <c r="C5" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="67">
-        <v>3</v>
-      </c>
-      <c r="E5" s="55" t="s">
+      <c r="D5" s="9">
+        <v>3</v>
+      </c>
+      <c r="E5" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="F5" s="56">
+      <c r="F5" s="5">
         <v>2</v>
       </c>
-      <c r="G5" s="55" t="s">
+      <c r="G5" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="H5" s="56">
-        <v>3</v>
-      </c>
-      <c r="I5" s="55" t="s">
+      <c r="H5" s="5">
+        <v>3</v>
+      </c>
+      <c r="I5" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="J5" s="56">
-        <v>3</v>
-      </c>
-      <c r="K5" s="55" t="s">
+      <c r="J5" s="5">
+        <v>3</v>
+      </c>
+      <c r="K5" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="L5" s="56">
-        <v>3</v>
-      </c>
-      <c r="M5" s="59"/>
-      <c r="N5" s="60"/>
-      <c r="O5" s="63"/>
-      <c r="P5" s="63"/>
+      <c r="L5" s="5">
+        <v>3</v>
+      </c>
+      <c r="M5" s="54"/>
+      <c r="N5" s="55"/>
+      <c r="O5" s="52"/>
+      <c r="P5" s="52"/>
       <c r="S5" s="18">
         <f>160/16</f>
         <v>10</v>
@@ -5888,40 +5850,40 @@
       <c r="B6" s="5">
         <v>3</v>
       </c>
-      <c r="C6" s="55" t="s">
+      <c r="C6" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="56">
-        <v>3</v>
-      </c>
-      <c r="E6" s="55" t="s">
+      <c r="D6" s="5">
+        <v>3</v>
+      </c>
+      <c r="E6" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="F6" s="56">
-        <v>3</v>
-      </c>
-      <c r="G6" s="55" t="s">
+      <c r="F6" s="5">
+        <v>3</v>
+      </c>
+      <c r="G6" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="H6" s="62">
-        <v>3</v>
-      </c>
-      <c r="I6" s="55" t="s">
+      <c r="H6" s="7">
+        <v>3</v>
+      </c>
+      <c r="I6" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="J6" s="56">
-        <v>3</v>
-      </c>
-      <c r="K6" s="55" t="s">
+      <c r="J6" s="5">
+        <v>3</v>
+      </c>
+      <c r="K6" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="L6" s="56">
-        <v>3</v>
-      </c>
-      <c r="M6" s="59"/>
-      <c r="N6" s="60"/>
-      <c r="O6" s="63"/>
-      <c r="P6" s="63"/>
+      <c r="L6" s="5">
+        <v>3</v>
+      </c>
+      <c r="M6" s="54"/>
+      <c r="N6" s="55"/>
+      <c r="O6" s="52"/>
+      <c r="P6" s="52"/>
       <c r="S6" s="18">
         <f>64*2</f>
         <v>128</v>
@@ -5935,44 +5897,44 @@
       <c r="B7" s="5">
         <v>3</v>
       </c>
-      <c r="C7" s="55" t="s">
+      <c r="C7" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="D7" s="67">
-        <v>3</v>
-      </c>
-      <c r="E7" s="55" t="s">
+      <c r="D7" s="9">
+        <v>3</v>
+      </c>
+      <c r="E7" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="F7" s="56">
+      <c r="F7" s="5">
         <v>2</v>
       </c>
-      <c r="G7" s="55" t="s">
+      <c r="G7" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="H7" s="56">
-        <v>3</v>
-      </c>
-      <c r="I7" s="55" t="s">
+      <c r="H7" s="5">
+        <v>3</v>
+      </c>
+      <c r="I7" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="J7" s="56">
-        <v>3</v>
-      </c>
-      <c r="K7" s="55" t="s">
+      <c r="J7" s="5">
+        <v>3</v>
+      </c>
+      <c r="K7" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="L7" s="56">
-        <v>3</v>
-      </c>
-      <c r="M7" s="55" t="s">
+      <c r="L7" s="5">
+        <v>3</v>
+      </c>
+      <c r="M7" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="N7" s="56">
-        <v>3</v>
-      </c>
-      <c r="O7" s="68"/>
-      <c r="P7" s="68"/>
+      <c r="N7" s="5">
+        <v>3</v>
+      </c>
+      <c r="O7" s="53"/>
+      <c r="P7" s="53"/>
       <c r="S7" s="18">
         <f>360</f>
         <v>360</v>
@@ -5985,46 +5947,46 @@
     <row r="8" spans="1:25" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A8" s="16"/>
       <c r="B8" s="5"/>
-      <c r="C8" s="55" t="s">
+      <c r="C8" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="D8" s="56">
+      <c r="D8" s="5">
         <v>2</v>
       </c>
-      <c r="E8" s="55" t="s">
+      <c r="E8" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="F8" s="56">
-        <v>3</v>
-      </c>
-      <c r="G8" s="55" t="s">
+      <c r="F8" s="5">
+        <v>3</v>
+      </c>
+      <c r="G8" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="H8" s="56">
-        <v>3</v>
-      </c>
-      <c r="I8" s="55" t="s">
+      <c r="H8" s="5">
+        <v>3</v>
+      </c>
+      <c r="I8" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="J8" s="56">
-        <v>3</v>
-      </c>
-      <c r="K8" s="55" t="s">
+      <c r="J8" s="5">
+        <v>3</v>
+      </c>
+      <c r="K8" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="L8" s="56">
-        <v>3</v>
-      </c>
-      <c r="M8" s="56" t="s">
+      <c r="L8" s="5">
+        <v>3</v>
+      </c>
+      <c r="M8" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="N8" s="56">
+      <c r="N8" s="5">
         <v>180</v>
       </c>
-      <c r="O8" s="56" t="s">
+      <c r="O8" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="P8" s="56">
+      <c r="P8" s="5">
         <v>180</v>
       </c>
       <c r="S8" s="18"/>
@@ -6122,16 +6084,16 @@
       <c r="P11" s="15"/>
     </row>
     <row r="12" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="R12" s="46" t="s">
+      <c r="R12" s="37" t="s">
         <v>86</v>
       </c>
-      <c r="S12" s="47" t="s">
+      <c r="S12" s="38" t="s">
         <v>89</v>
       </c>
-      <c r="T12" s="47" t="s">
+      <c r="T12" s="38" t="s">
         <v>90</v>
       </c>
-      <c r="U12" s="47" t="s">
+      <c r="U12" s="38" t="s">
         <v>104</v>
       </c>
     </row>
@@ -6167,18 +6129,18 @@
       <c r="Q13" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="R13" s="45" t="s">
+      <c r="R13" s="36" t="s">
         <v>51</v>
       </c>
       <c r="S13" s="15">
         <f>B22+D22+F22+H22+J22+L22</f>
         <v>2048</v>
       </c>
-      <c r="T13" s="49">
+      <c r="T13" s="40">
         <f>5/6*S13</f>
         <v>1706.6666666666667</v>
       </c>
-      <c r="U13" s="53">
+      <c r="U13" s="44">
         <f>T13/$T$21</f>
         <v>0.53112033195020747</v>
       </c>
@@ -6218,18 +6180,18 @@
       <c r="Q14" s="20" t="s">
         <v>96</v>
       </c>
-      <c r="R14" s="45" t="s">
+      <c r="R14" s="36" t="s">
         <v>52</v>
       </c>
       <c r="S14" s="15">
         <f>N22</f>
         <v>240</v>
       </c>
-      <c r="T14" s="49">
+      <c r="T14" s="40">
         <f t="shared" ref="T14:T18" si="6">5/6*S14</f>
         <v>200</v>
       </c>
-      <c r="U14" s="53">
+      <c r="U14" s="44">
         <f t="shared" ref="U14:U21" si="7">T14/$T$21</f>
         <v>6.2240663900414932E-2</v>
       </c>
@@ -6272,22 +6234,22 @@
       <c r="Q15" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="R15" s="45" t="s">
+      <c r="R15" s="36" t="s">
         <v>85</v>
       </c>
       <c r="S15" s="15">
         <f>S13+S14</f>
         <v>2288</v>
       </c>
-      <c r="T15" s="49">
+      <c r="T15" s="40">
         <f t="shared" si="6"/>
         <v>1906.6666666666667</v>
       </c>
-      <c r="U15" s="53">
+      <c r="U15" s="44">
         <f t="shared" si="7"/>
         <v>0.59336099585062241</v>
       </c>
-      <c r="V15" s="52"/>
+      <c r="V15" s="43"/>
       <c r="W15" s="20"/>
     </row>
     <row r="16" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6322,18 +6284,18 @@
       <c r="Q16" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="R16" s="45" t="s">
+      <c r="R16" s="36" t="s">
         <v>87</v>
       </c>
       <c r="S16" s="15">
         <f>16*(H2+L2+N2+D8+F8+H8+J8+J7+L7)</f>
         <v>656</v>
       </c>
-      <c r="T16" s="49">
+      <c r="T16" s="40">
         <f t="shared" si="6"/>
         <v>546.66666666666674</v>
       </c>
-      <c r="U16" s="53">
+      <c r="U16" s="44">
         <f t="shared" si="7"/>
         <v>0.17012448132780084</v>
       </c>
@@ -6370,17 +6332,17 @@
       <c r="Q17" s="20" t="s">
         <v>98</v>
       </c>
-      <c r="R17" s="45" t="s">
+      <c r="R17" s="36" t="s">
         <v>84</v>
       </c>
       <c r="S17" s="15">
         <v>320</v>
       </c>
-      <c r="T17" s="49">
+      <c r="T17" s="40">
         <f t="shared" si="6"/>
         <v>266.66666666666669</v>
       </c>
-      <c r="U17" s="53">
+      <c r="U17" s="44">
         <f t="shared" si="7"/>
         <v>8.2987551867219914E-2</v>
       </c>
@@ -6417,18 +6379,18 @@
       <c r="Q18" s="20" t="s">
         <v>99</v>
       </c>
-      <c r="R18" s="45" t="s">
+      <c r="R18" s="36" t="s">
         <v>88</v>
       </c>
       <c r="S18" s="15">
         <f>N8+P8</f>
         <v>360</v>
       </c>
-      <c r="T18" s="49">
+      <c r="T18" s="40">
         <f t="shared" si="6"/>
         <v>300</v>
       </c>
-      <c r="U18" s="53">
+      <c r="U18" s="44">
         <f t="shared" si="7"/>
         <v>9.3360995850622408E-2</v>
       </c>
@@ -6469,11 +6431,11 @@
       <c r="S19" s="20">
         <v>488</v>
       </c>
-      <c r="T19" s="54">
+      <c r="T19" s="45">
         <f>5/6*S19</f>
         <v>406.66666666666669</v>
       </c>
-      <c r="U19" s="53">
+      <c r="U19" s="44">
         <f>T19/$T$21</f>
         <v>0.12655601659751037</v>
       </c>
@@ -6514,11 +6476,11 @@
       <c r="S20" s="20">
         <v>400</v>
       </c>
-      <c r="T20" s="54">
+      <c r="T20" s="45">
         <f>5/6*S20</f>
         <v>333.33333333333337</v>
       </c>
-      <c r="U20" s="53">
+      <c r="U20" s="44">
         <f t="shared" si="7"/>
         <v>0.1037344398340249</v>
       </c>
@@ -6534,18 +6496,18 @@
       <c r="L21" s="4"/>
       <c r="N21" s="4"/>
       <c r="P21" s="4"/>
-      <c r="R21" s="48" t="s">
+      <c r="R21" s="39" t="s">
         <v>91</v>
       </c>
-      <c r="S21" s="48">
+      <c r="S21" s="39">
         <f>S15+S18+S17+S19+S20</f>
         <v>3856</v>
       </c>
-      <c r="T21" s="50">
+      <c r="T21" s="41">
         <f>T15+T18+T17+T19+T20</f>
         <v>3213.3333333333335</v>
       </c>
-      <c r="U21" s="53">
+      <c r="U21" s="44">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
@@ -6581,16 +6543,16 @@
         <f>SUM(N13:N19)</f>
         <v>240</v>
       </c>
-      <c r="T22" s="51"/>
+      <c r="T22" s="42"/>
       <c r="V22" s="18"/>
       <c r="W22" s="30"/>
     </row>
     <row r="23" spans="2:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="4"/>
-      <c r="R23" s="44" t="s">
+      <c r="R23" s="56" t="s">
         <v>53</v>
       </c>
-      <c r="S23" s="44"/>
+      <c r="S23" s="56"/>
     </row>
     <row r="24" spans="2:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="R24" s="15">
